--- a/biology/Zoologie/Encrinida/Encrinida.xlsx
+++ b/biology/Zoologie/Encrinida/Encrinida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Encrinida sont un ordre fossile de crinoïdes sessiles de l'embranchement des (échinodermes).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des crinoïdes « vrais » (sessiles). Ces espèces vivaient attachées au fond par une longue tige calcaire articulée, terminée par un disque d'attache. Les entroques qui composent la tige sont pentagonales, et se désolidarisent généralement à la mort de l'animal.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des familles et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database                   (11 avril 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database                   (11 avril 2024) :
 famille † des Ainigmacrinidae Hagdorn, 1988
 genre †Ainigmacrinus Hagdorn 1988
 famille † des Dadocrinidae Dujardin &amp; Hupé, 1862
@@ -584,9 +600,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Encrinida Matsumoto (d), 1929[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Encrinida Matsumoto (d), 1929.
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) H. Matsumoto, « Outline of the classification of the Echinodermata », Science Reports of the Tohoku Imperial University, Japon, 2nd, Geology, vol. 8,‎ 1929, p. 27-33.</t>
         </is>
